--- a/m1/u1/ejercicios/20191028/Funciones lógicas/Funciones Y y O.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/Funciones Y y O.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\Funciones lógicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VENTAS" sheetId="5" r:id="rId1"/>
@@ -382,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -531,51 +531,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -657,19 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -716,19 +675,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="23"/>
       </top>
@@ -745,7 +691,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -771,39 +717,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -812,13 +753,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1270,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,178 +1221,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="38">
         <v>12</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="38">
         <v>5</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="38">
         <v>10</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="38" t="str">
+        <f>IF(OR(B3&gt;=10,C3&gt;=10,D3&gt;=10),"SUFICIENTE","")</f>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F3" s="37" t="str">
+        <f>IF(AND(B3&gt;=10,C3&gt;=10,D3&gt;=10),"ESTRELLA","")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="38">
         <v>10</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="38">
         <v>10</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="38">
         <v>7</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="38" t="str">
+        <f t="shared" ref="E4:E11" si="0">IF(OR(B4&gt;=10,C4&gt;=10,D4&gt;=10),"SUFICIENTE","")</f>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F4" s="37" t="str">
+        <f t="shared" ref="F4:F11" si="1">IF(AND(B4&gt;=10,C4&gt;=10,D4&gt;=10),"ESTRELLA","")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="38">
         <v>7</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="38">
         <v>14</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="38">
         <v>11</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F5" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="38">
         <v>17</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="38">
         <v>11</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="38">
         <v>14</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="42"/>
+      <c r="E6" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F6" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTRELLA</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="38">
         <v>9</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="38">
         <v>5</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="38">
         <v>7</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42"/>
+      <c r="E7" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="38">
         <v>15</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="38">
         <v>19</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="38">
         <v>19</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F8" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>ESTRELLA</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="38">
         <v>8</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="38">
         <v>4</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="38">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F9" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="38">
         <v>16</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="38">
         <v>9</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="38">
         <v>7</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F10" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="35">
         <v>8</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="35">
         <v>14</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="35">
         <v>9</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>SUFICIENTE</v>
+      </c>
+      <c r="F11" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1471,7 +1466,7 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1509,7 +1504,10 @@
       <c r="D3" s="9">
         <v>5.5</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="str">
+        <f>IF(AND(C3&gt;0,D3&gt;5),"BECADO","NO BECADO")</f>
+        <v>BECADO</v>
+      </c>
     </row>
     <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
@@ -1521,7 +1519,10 @@
       <c r="D4" s="9">
         <v>4</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="str">
+        <f t="shared" ref="E4:E8" si="0">IF(AND(C4&gt;0,D4&gt;5),"BECADO","NO BECADO")</f>
+        <v>NO BECADO</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
@@ -1533,31 +1534,40 @@
       <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>NO BECADO</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>6</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>NO BECADO</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BECADO</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
@@ -1569,7 +1579,10 @@
       <c r="D8" s="16">
         <v>6.8</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>NO BECADO</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
@@ -1596,14 +1609,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="5" customWidth="1"/>
     <col min="2" max="3" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
@@ -1614,21 +1627,21 @@
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1637,10 +1650,13 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="23" t="str">
+        <f>IF(AND(B4="X",C4="X"),"FEMENINO","MASCULINO")</f>
+        <v>MASCULINO</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1649,10 +1665,13 @@
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="23" t="str">
+        <f t="shared" ref="D5:D13" si="0">IF(AND(B5="X",C5="X"),"FEMENINO","MASCULINO")</f>
+        <v>FEMENINO</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1661,10 +1680,13 @@
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>FEMENINO</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1673,10 +1695,13 @@
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>MASCULINO</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1685,10 +1710,13 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>FEMENINO</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1697,10 +1725,13 @@
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>MASCULINO</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1709,10 +1740,13 @@
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>FEMENINO</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1721,10 +1755,13 @@
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>FEMENINO</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1733,10 +1770,13 @@
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>MASCULINO</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1745,13 +1785,16 @@
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>FEMENINO</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1768,7 +1811,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1820,7 @@
     <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1808,24 +1851,24 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1837,10 +1880,13 @@
       <c r="D9" s="2">
         <v>60</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="32" t="str">
+        <f>IF(OR(B9="CON ANTECEDENTES",C9="NO INSCRITO",D9&gt;70),"NO PUEDE VOTAR","PUEDE VOTAR")</f>
+        <v>PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1852,10 +1898,13 @@
       <c r="D10" s="2">
         <v>35</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="32" t="str">
+        <f t="shared" ref="E10:E18" si="0">IF(OR(B10="CON ANTECEDENTES",C10="NO INSCRITO",D10&gt;70),"NO PUEDE VOTAR","PUEDE VOTAR")</f>
+        <v>PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1867,10 +1916,13 @@
       <c r="D11" s="2">
         <v>20</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NO PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1882,10 +1934,13 @@
       <c r="D12" s="2">
         <v>75</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NO PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1897,10 +1952,13 @@
       <c r="D13" s="2">
         <v>25</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NO PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1912,10 +1970,13 @@
       <c r="D14" s="2">
         <v>30</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NO PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1927,10 +1988,13 @@
       <c r="D15" s="2">
         <v>45</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1942,10 +2006,13 @@
       <c r="D16" s="2">
         <v>72</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NO PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1957,22 +2024,28 @@
       <c r="D17" s="2">
         <v>44</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NO PUEDE VOTAR</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="34">
         <v>41</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>PUEDE VOTAR</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1989,8 +2062,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2013,69 +2086,87 @@
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="32" t="str">
+        <f>IF(AND(A5="AZUL",B5="AMARILLO"),"VERDE","OTRO")</f>
+        <v>OTRO</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="32" t="str">
+        <f t="shared" ref="C6:C10" si="0">IF(AND(A6="AZUL",B6="AMARILLO"),"VERDE","OTRO")</f>
+        <v>OTRO</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>OTRO</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>VERDE</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>OTRO</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>OTRO</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
